--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,51 +487,51 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>After powering off the aircraft,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,51 +487,51 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Aircraft unable to auto hover</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>After powering off the aircraft,</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -546,40 +546,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
